--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>213.097388902287</v>
+        <v>247.6308600842204</v>
       </c>
       <c r="AB2" t="n">
-        <v>291.5692486892693</v>
+        <v>338.8194674695918</v>
       </c>
       <c r="AC2" t="n">
-        <v>263.7422888144621</v>
+        <v>306.4830130305041</v>
       </c>
       <c r="AD2" t="n">
-        <v>213097.3889022869</v>
+        <v>247630.8600842204</v>
       </c>
       <c r="AE2" t="n">
-        <v>291569.2486892694</v>
+        <v>338819.4674695918</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.969661156849269e-06</v>
+        <v>5.72291922633587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.65625</v>
       </c>
       <c r="AH2" t="n">
-        <v>263742.2888144621</v>
+        <v>306483.0130305041</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.5227020694899</v>
+        <v>155.4228054559401</v>
       </c>
       <c r="AB3" t="n">
-        <v>177.2186751097301</v>
+        <v>212.6563391949719</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.3051734852797</v>
+        <v>192.3607166473112</v>
       </c>
       <c r="AD3" t="n">
-        <v>129522.7020694899</v>
+        <v>155422.80545594</v>
       </c>
       <c r="AE3" t="n">
-        <v>177218.6751097301</v>
+        <v>212656.3391949719</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.330325212192077e-06</v>
+        <v>7.684540174630113e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.702083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>160305.1734852797</v>
+        <v>192360.7166473112</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.9520455259436</v>
+        <v>167.1190648449318</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.2250511707747</v>
+        <v>228.659677293529</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.6884848836622</v>
+        <v>206.8367186185731</v>
       </c>
       <c r="AD2" t="n">
-        <v>141952.0455259436</v>
+        <v>167119.0648449318</v>
       </c>
       <c r="AE2" t="n">
-        <v>194225.0511707747</v>
+        <v>228659.677293529</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.105769786099347e-06</v>
+        <v>7.474654893136526e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.158333333333332</v>
       </c>
       <c r="AH2" t="n">
-        <v>175688.4848836622</v>
+        <v>206836.7186185731</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.8621546104914</v>
+        <v>162.3611671213598</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.3148849350316</v>
+        <v>222.1497117245077</v>
       </c>
       <c r="AC3" t="n">
-        <v>159.4876397763765</v>
+        <v>200.9480550266632</v>
       </c>
       <c r="AD3" t="n">
-        <v>128862.1546104914</v>
+        <v>162361.1671213598</v>
       </c>
       <c r="AE3" t="n">
-        <v>176314.8849350316</v>
+        <v>222149.7117245077</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.251554061736967e-06</v>
+        <v>7.688077588418209e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.9875</v>
       </c>
       <c r="AH3" t="n">
-        <v>159487.6397763765</v>
+        <v>200948.0550266631</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.0392859740913</v>
+        <v>202.7050479361469</v>
       </c>
       <c r="AB2" t="n">
-        <v>224.4457879721926</v>
+        <v>277.349989301678</v>
       </c>
       <c r="AC2" t="n">
-        <v>203.024996979833</v>
+        <v>250.880095585962</v>
       </c>
       <c r="AD2" t="n">
-        <v>164039.2859740914</v>
+        <v>202705.0479361468</v>
       </c>
       <c r="AE2" t="n">
-        <v>224445.7879721926</v>
+        <v>277349.989301678</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.388325189896246e-06</v>
+        <v>6.789280732539982e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.993749999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>203024.996979833</v>
+        <v>250880.095585962</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.8618910632233</v>
+        <v>174.8624122556296</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.4699419744323</v>
+        <v>239.2544668332183</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.8145650562344</v>
+        <v>216.4203563144785</v>
       </c>
       <c r="AD2" t="n">
-        <v>142861.8910632233</v>
+        <v>174862.4122556296</v>
       </c>
       <c r="AE2" t="n">
-        <v>195469.9419744323</v>
+        <v>239254.4668332184</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.86513603112549e-06</v>
+        <v>7.352650739477296e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.897916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>176814.5650562344</v>
+        <v>216420.3563144784</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>200.5951745089852</v>
+        <v>238.2186404940983</v>
       </c>
       <c r="AB2" t="n">
-        <v>274.4631673975907</v>
+        <v>325.9412533885707</v>
       </c>
       <c r="AC2" t="n">
-        <v>248.2687879127198</v>
+        <v>294.8338776266847</v>
       </c>
       <c r="AD2" t="n">
-        <v>200595.1745089852</v>
+        <v>238218.6404940983</v>
       </c>
       <c r="AE2" t="n">
-        <v>274463.1673975906</v>
+        <v>325941.2533885707</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.847387609029816e-06</v>
+        <v>6.080749910264292e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.470833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>248268.7879127198</v>
+        <v>294833.8776266847</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.190440197872</v>
+        <v>175.5277368091721</v>
       </c>
       <c r="AB2" t="n">
-        <v>205.4971862132231</v>
+        <v>240.1647932394224</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.8848231782039</v>
+        <v>217.2438024461258</v>
       </c>
       <c r="AD2" t="n">
-        <v>150190.440197872</v>
+        <v>175527.7368091721</v>
       </c>
       <c r="AE2" t="n">
-        <v>205497.1862132231</v>
+        <v>240164.7932394224</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.915430316498125e-06</v>
+        <v>7.166138462507694e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.339583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>185884.8231782039</v>
+        <v>217243.8024461258</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.7510780029526</v>
+        <v>154.1736259602733</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.162905020243</v>
+        <v>210.9471566990916</v>
       </c>
       <c r="AC3" t="n">
-        <v>159.3501646113502</v>
+        <v>190.8146561299844</v>
       </c>
       <c r="AD3" t="n">
-        <v>128751.0780029526</v>
+        <v>154173.6259602733</v>
       </c>
       <c r="AE3" t="n">
-        <v>176162.905020243</v>
+        <v>210947.1566990915</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.28304815006328e-06</v>
+        <v>7.702083461620575e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.897916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>159350.1646113503</v>
+        <v>190814.6561299844</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>228.4532189786648</v>
+        <v>272.9800500103588</v>
       </c>
       <c r="AB2" t="n">
-        <v>312.5797728511699</v>
+        <v>373.503347454026</v>
       </c>
       <c r="AC2" t="n">
-        <v>282.7475980388135</v>
+        <v>337.8567121882535</v>
       </c>
       <c r="AD2" t="n">
-        <v>228453.2189786648</v>
+        <v>272980.0500103588</v>
       </c>
       <c r="AE2" t="n">
-        <v>312579.7728511699</v>
+        <v>373503.3474540261</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.463390057450717e-06</v>
+        <v>5.549164414318455e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.76666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>282747.5980388134</v>
+        <v>337856.7121882535</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.6050070440442</v>
+        <v>163.219394163942</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.6454854589257</v>
+        <v>223.323975826473</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.5459864958898</v>
+        <v>202.0102490108272</v>
       </c>
       <c r="AD2" t="n">
-        <v>138605.0070440441</v>
+        <v>163219.394163942</v>
       </c>
       <c r="AE2" t="n">
-        <v>189645.4854589257</v>
+        <v>223323.975826473</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.106279307411709e-06</v>
+        <v>7.58202409225327e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>171545.9864958898</v>
+        <v>202010.2490108272</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.1196101184732</v>
+        <v>163.733997238371</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.3495880880445</v>
+        <v>224.0280784555918</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.1828905583001</v>
+        <v>202.6471530732375</v>
       </c>
       <c r="AD3" t="n">
-        <v>139119.6101184732</v>
+        <v>163733.9972383711</v>
       </c>
       <c r="AE3" t="n">
-        <v>190349.5880880445</v>
+        <v>224028.0784555918</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.105346369657614e-06</v>
+        <v>7.580638825975757e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.345833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>172182.8905583001</v>
+        <v>202647.1530732375</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.3386329029924</v>
+        <v>163.3288999219116</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.2810206075411</v>
+        <v>223.47380643558</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.2163056583916</v>
+        <v>202.1457799968897</v>
       </c>
       <c r="AD2" t="n">
-        <v>138338.6329029924</v>
+        <v>163328.8999219116</v>
       </c>
       <c r="AE2" t="n">
-        <v>189281.0206075411</v>
+        <v>223473.80643558</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.180470468246556e-06</v>
+        <v>7.617583838450659e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.127083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>171216.3056583916</v>
+        <v>202145.7799968897</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.5637667526087</v>
+        <v>162.5540337715279</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.2208145559047</v>
+        <v>222.4136003839436</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.2572841843146</v>
+        <v>201.1867585228126</v>
       </c>
       <c r="AD3" t="n">
-        <v>137563.7667526087</v>
+        <v>162554.0337715279</v>
       </c>
       <c r="AE3" t="n">
-        <v>188220.8145559047</v>
+        <v>222413.6003839436</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.21581540262584e-06</v>
+        <v>7.669556531384449e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.085416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>170257.2841843145</v>
+        <v>201186.7585228126</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.8274286708596</v>
+        <v>214.5735038043978</v>
       </c>
       <c r="AB2" t="n">
-        <v>258.3620183855691</v>
+        <v>293.5889342199299</v>
       </c>
       <c r="AC2" t="n">
-        <v>233.7043099642959</v>
+        <v>265.5692183927235</v>
       </c>
       <c r="AD2" t="n">
-        <v>188827.4286708596</v>
+        <v>214573.5038043978</v>
       </c>
       <c r="AE2" t="n">
-        <v>258362.018385569</v>
+        <v>293588.9342199299</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.326670770400372e-06</v>
+        <v>6.25970831600825e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.081250000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>233704.3099642959</v>
+        <v>265569.2183927235</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.3766818662334</v>
+        <v>155.1226674912206</v>
       </c>
       <c r="AB3" t="n">
-        <v>177.0188838256779</v>
+        <v>212.2456771904904</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.1244500009685</v>
+        <v>191.9892476481696</v>
       </c>
       <c r="AD3" t="n">
-        <v>129376.6818662334</v>
+        <v>155122.6674912206</v>
       </c>
       <c r="AE3" t="n">
-        <v>177018.8838256779</v>
+        <v>212245.6771904904</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.312498213039264e-06</v>
+        <v>7.685976356334501e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.766666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>160124.4500009685</v>
+        <v>191989.2476481696</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.7482803428081</v>
+        <v>173.0461764210318</v>
       </c>
       <c r="AB2" t="n">
-        <v>192.5780065408376</v>
+        <v>236.7694128376529</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.1986318815642</v>
+        <v>214.1724723844538</v>
       </c>
       <c r="AD2" t="n">
-        <v>140748.2803428081</v>
+        <v>173046.1764210318</v>
       </c>
       <c r="AE2" t="n">
-        <v>192578.0065408376</v>
+        <v>236769.4128376529</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.966037654786129e-06</v>
+        <v>7.457422338909849e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.672916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>174198.6318815642</v>
+        <v>214172.4723844538</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.2039314386056</v>
+        <v>189.6366994069269</v>
       </c>
       <c r="AB2" t="n">
-        <v>216.461598459072</v>
+        <v>259.4692983091609</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.8028073079617</v>
+        <v>234.7059126460577</v>
       </c>
       <c r="AD2" t="n">
-        <v>158203.9314386056</v>
+        <v>189636.6994069269</v>
       </c>
       <c r="AE2" t="n">
-        <v>216461.598459072</v>
+        <v>259469.2983091609</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.579538998394739e-06</v>
+        <v>7.02385305016501e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.539583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>195802.8073079617</v>
+        <v>234705.9126460577</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>180.2153925746998</v>
+        <v>218.4713521705847</v>
       </c>
       <c r="AB2" t="n">
-        <v>246.578650662591</v>
+        <v>298.9221423154776</v>
       </c>
       <c r="AC2" t="n">
-        <v>223.0455303187347</v>
+        <v>270.3934325928383</v>
       </c>
       <c r="AD2" t="n">
-        <v>180215.3925746998</v>
+        <v>218471.3521705847</v>
       </c>
       <c r="AE2" t="n">
-        <v>246578.650662591</v>
+        <v>298922.1423154776</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.148649745388838e-06</v>
+        <v>6.482183393537291e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.608333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>223045.5303187347</v>
+        <v>270393.4325928384</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>288.1700641968584</v>
+        <v>331.9206906603976</v>
       </c>
       <c r="AB2" t="n">
-        <v>394.2869950001249</v>
+        <v>454.1485322689563</v>
       </c>
       <c r="AC2" t="n">
-        <v>356.6567975825852</v>
+        <v>410.8052337506745</v>
       </c>
       <c r="AD2" t="n">
-        <v>288170.0641968584</v>
+        <v>331920.6906603976</v>
       </c>
       <c r="AE2" t="n">
-        <v>394286.9950001249</v>
+        <v>454148.5322689562</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.939992544531694e-06</v>
+        <v>4.791235681302377e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.0375</v>
       </c>
       <c r="AH2" t="n">
-        <v>356656.7975825852</v>
+        <v>410805.2337506745</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.7895320036196</v>
+        <v>162.5958675752623</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.5297165323976</v>
+        <v>222.4708392397902</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.5367049897177</v>
+        <v>201.2385345825924</v>
       </c>
       <c r="AD2" t="n">
-        <v>137789.5320036196</v>
+        <v>162595.8675752623</v>
       </c>
       <c r="AE2" t="n">
-        <v>188529.7165323976</v>
+        <v>222470.8392397902</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.164329911785928e-06</v>
+        <v>7.629681881164317e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.208333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>170536.7049897177</v>
+        <v>201238.5345825924</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.6695857663116</v>
+        <v>162.4759213379542</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.3656007988583</v>
+        <v>222.3067235062509</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.3882522314495</v>
+        <v>201.0900818243242</v>
       </c>
       <c r="AD3" t="n">
-        <v>137669.5857663116</v>
+        <v>162475.9213379542</v>
       </c>
       <c r="AE3" t="n">
-        <v>188365.6007988583</v>
+        <v>222306.7235062509</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.181255582622756e-06</v>
+        <v>7.654687542366476e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.1875</v>
       </c>
       <c r="AH3" t="n">
-        <v>170388.2522314495</v>
+        <v>201090.0818243242</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.6586291694307</v>
+        <v>197.6892196776852</v>
       </c>
       <c r="AB2" t="n">
-        <v>223.9249565386633</v>
+        <v>270.4871117957288</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.553872967328</v>
+        <v>244.6722014770693</v>
       </c>
       <c r="AD2" t="n">
-        <v>163658.6291694307</v>
+        <v>197689.2196776852</v>
       </c>
       <c r="AE2" t="n">
-        <v>223924.9565386632</v>
+        <v>270487.1117957288</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.625993441461218e-06</v>
+        <v>6.717724342192089e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.677083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>202553.872967328</v>
+        <v>244672.2014770693</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.7324314439437</v>
+        <v>154.3193799660633</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.1373919755789</v>
+        <v>211.1465837600263</v>
       </c>
       <c r="AC3" t="n">
-        <v>159.3270864958611</v>
+        <v>190.9950501521213</v>
       </c>
       <c r="AD3" t="n">
-        <v>128732.4314439437</v>
+        <v>154319.3799660633</v>
       </c>
       <c r="AE3" t="n">
-        <v>176137.3919755789</v>
+        <v>211146.5837600263</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.308497618231178e-06</v>
+        <v>7.708835760734676e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.818750000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>159327.0864958611</v>
+        <v>190995.0501521213</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>395.6119447190204</v>
+        <v>459.6529204513703</v>
       </c>
       <c r="AB2" t="n">
-        <v>541.2937159317829</v>
+        <v>628.9174042172345</v>
       </c>
       <c r="AC2" t="n">
-        <v>489.6334033937545</v>
+        <v>568.8944098498616</v>
       </c>
       <c r="AD2" t="n">
-        <v>395611.9447190204</v>
+        <v>459652.9204513703</v>
       </c>
       <c r="AE2" t="n">
-        <v>541293.715931783</v>
+        <v>628917.4042172346</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.228739365068757e-06</v>
+        <v>3.715175735413828e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.80833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>489633.4033937545</v>
+        <v>568894.4098498616</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.2903416739868</v>
+        <v>178.1180541099852</v>
       </c>
       <c r="AB2" t="n">
-        <v>211.1068522877283</v>
+        <v>243.7089796471273</v>
       </c>
       <c r="AC2" t="n">
-        <v>190.9591105957759</v>
+        <v>220.4497366773773</v>
       </c>
       <c r="AD2" t="n">
-        <v>154290.3416739868</v>
+        <v>178118.0541099852</v>
       </c>
       <c r="AE2" t="n">
-        <v>211106.8522877283</v>
+        <v>243708.9796471273</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.729487204864744e-06</v>
+        <v>7.197837894432382e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.193750000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>190959.1105957759</v>
+        <v>220449.7366773773</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.2531449426947</v>
+        <v>163.6665570557673</v>
       </c>
       <c r="AB2" t="n">
-        <v>190.5322963256849</v>
+        <v>223.9358038225027</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.3481613781727</v>
+        <v>202.563685001622</v>
       </c>
       <c r="AD2" t="n">
-        <v>139253.1449426947</v>
+        <v>163666.5570557673</v>
       </c>
       <c r="AE2" t="n">
-        <v>190532.2963256849</v>
+        <v>223935.8038225027</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.048104901645632e-06</v>
+        <v>7.536369792208372e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.4875</v>
       </c>
       <c r="AH2" t="n">
-        <v>172348.1613781727</v>
+        <v>202563.685001622</v>
       </c>
     </row>
   </sheetData>
